--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -1,76 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozen\Documents\GitHub\mSigHdp_paper_sup_files_x1\output_for_paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0655A42-88BF-4444-95FA-21FC50FCC4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="indel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="indel" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Data_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_PPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_TPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_cos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indel_set1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mSigHdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR_hdp_gb_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SigProfilerExtractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR_hdp_gb_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SignatureAnalyzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indel_set2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>Composite measure</t>
+  </si>
+  <si>
+    <t>Data set</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Mean PPV</t>
+  </si>
+  <si>
+    <t>Mean TPR</t>
+  </si>
+  <si>
+    <t>Mean cosine similarity</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>indel_set1</t>
+  </si>
+  <si>
+    <t>mSigHdp</t>
+  </si>
+  <si>
+    <t>NR_hdp_gb_1</t>
+  </si>
+  <si>
+    <t>SigProfilerExtractor</t>
+  </si>
+  <si>
+    <t>NR_hdp_gb_50</t>
+  </si>
+  <si>
+    <t>SignatureAnalyzer</t>
+  </si>
+  <si>
+    <t>signeR</t>
+  </si>
+  <si>
+    <t>indel_set2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,17 +110,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,314 +432,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.91923076923076896</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.99316587698824899</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.9123966462190198</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.4663757670721902E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.919230769230769</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.79941391941391904</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.993165876988249</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.91239664621902</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0546637576707219</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5" s="1">
+        <v>0.98839788814806895</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.7878118075619902</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.9329101962767498E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.98841730239064096</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.7465991205724598</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.4570108429218098E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.71607843137254901</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.98960678169722205</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.7056852130697702</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.93005496609551E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.55523809523809498</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.74545454545454504</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.98777140949931896</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.2884640501919602</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.6660192172811498E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60935897435897401</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61818181818181805</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.98840121459053099</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2159420071313201</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.199993248809202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.799413919413919</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C10" s="1">
+        <v>0.87904761904761897</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.988397888148069</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.78781180756199</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0493291019627675</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E10" s="1">
+        <v>0.99108791664850504</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.8701355356961198</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.77313854617788E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.81377450980392196</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99092609234155504</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.8047006021454801</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.6114999634235499E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.988417302390641</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.74659912057246</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0545701084292181</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="1">
+        <v>0.77855779153766802</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.98910969815977401</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7676674896974398</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.7649661845124304E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.716078431372549</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.989606781697222</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.70568521306977</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0393005496609551</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.555238095238095</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.745454545454545</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.987771409499319</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.28846405019196</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0866601921728115</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C13" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.98931567285756095</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.5918797754216598</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.2674473680256799E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.609358974358974</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.618181818181818</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.988401214590531</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.21594200713132</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.199993248809202</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="C14" s="1">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.66153846153846196</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.98500383363473698</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.2132089618398698</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.12829853625478699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.879047619047619</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.991087916648505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.87013553569612</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0277313854617788</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.813774509803922</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.990926092341555</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.80470060214548</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0361149996342355</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.778557791537668</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.989109698159774</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.76766748969744</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0676496618451243</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.769230769230769</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.989315672857561</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.59187977542166</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.000126744736802568</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.566666666666667</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.661538461538462</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.985003833634737</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.21320896183987</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.128298536254787</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.572882205513784</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.553846153846154</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.989241018725507</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.11596937808544</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15" s="1">
+        <v>0.57288220551378399</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.55384615384615399</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.98924101872550696</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.1159693780854401</v>
+      </c>
+      <c r="G15" s="1">
         <v>0.126683555152344</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -580,19 +580,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.21594200713132</v>
+        <v>2.25048404231296</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.199993248809202</v>
+        <v>0.145502777593941</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.609358974358974</v>
+        <v>0.588461538461538</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.618181818181818</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.988401214590531</v>
+        <v>0.989295231124154</v>
       </c>
     </row>
     <row r="9">

--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Composite measure</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">indel_set2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilcoxon rank sum test mSigHdp vs SigProfilerExtractor p = 1.083e-05</t>
   </si>
 </sst>
 </file>
@@ -742,6 +745,11 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>

--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -721,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2.11596937808544</v>
+        <v>1.99820236911513</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.126683555152344</v>
+        <v>0.0826400815050587</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.572882205513784</v>
+        <v>0.564444444444444</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.553846153846154</v>
+        <v>0.446153846153846</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.989241018725507</v>
+        <v>0.987604078516839</v>
       </c>
     </row>
     <row r="15">

--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">indel_set2</t>
   </si>
   <si>
-    <t xml:space="preserve">Wilcoxon rank sum test mSigHdp vs SigProfilerExtractor p = 1.083e-05</t>
+    <t xml:space="preserve">Wilcoxon rank-sum test mSigHdp vs SigProfilerExtractor p = 1.083e-05</t>
   </si>
 </sst>
 </file>

--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -48,13 +48,13 @@
     <t xml:space="preserve">mSigHdp</t>
   </si>
   <si>
+    <t xml:space="preserve">NR_hdp_gb_50</t>
+  </si>
+  <si>
     <t xml:space="preserve">NR_hdp_gb_1</t>
   </si>
   <si>
     <t xml:space="preserve">SigProfilerExtractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR_hdp_gb_50</t>
   </si>
   <si>
     <t xml:space="preserve">SignatureAnalyzer</t>
@@ -491,19 +491,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.78781180756199</v>
+        <v>2.79458744030047</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0493291019627675</v>
+        <v>0.0438974409144724</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.799413919413919</v>
+        <v>0.819413919413919</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.988397888148069</v>
+        <v>0.993355339068369</v>
       </c>
     </row>
     <row r="5">
@@ -514,19 +514,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.74659912057246</v>
+        <v>2.78781180756199</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.0545701084292181</v>
+        <v>0.0493291019627675</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.94</v>
+        <v>0.799413919413919</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.818181818181818</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.988417302390641</v>
+        <v>0.988397888148069</v>
       </c>
     </row>
     <row r="6">
@@ -537,19 +537,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.70568521306977</v>
+        <v>2.74659912057246</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.0393005496609551</v>
+        <v>0.0545701084292181</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.716078431372549</v>
+        <v>0.94</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.989606781697222</v>
+        <v>0.988417302390641</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2.80470060214548</v>
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2.76766748969744</v>
@@ -672,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2.59187977542166</v>

--- a/output_for_paper/indel.table.xlsx
+++ b/output_for_paper/indel.table.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Composite measure</t>
+    <t xml:space="preserve">Composite Measure</t>
   </si>
   <si>
     <t xml:space="preserve">Data
